--- a/data/case1/13/P_device_1.xlsx
+++ b/data/case1/13/P_device_1.xlsx
@@ -53,43 +53,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.42578125" customWidth="true"/>
+    <col min="1" max="1" width="15.7109375" customWidth="true"/>
+    <col min="2" max="2" width="16.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.031043604883204727</v>
+        <v>-0.010067499149145369</v>
       </c>
       <c r="B1" s="0">
-        <v>-0.03104360595999309</v>
+        <v>0.010067498034236068</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.022752945024671831</v>
+        <v>0.044028105706899627</v>
       </c>
       <c r="B2" s="0">
-        <v>0.022752943879246198</v>
+        <v>-0.044028106842829422</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.087947247323109448</v>
+        <v>-0.068461654260332142</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.087947248363876768</v>
+        <v>0.068461653146266982</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.063868684295471073</v>
+        <v>0.00088045523342019695</v>
       </c>
       <c r="B4" s="0">
-        <v>0.063868683199504839</v>
+        <v>-0.00088045649764036614</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>-0.0027517693972807359</v>
+      </c>
+      <c r="B5" s="0">
+        <v>0.0027517680889708749</v>
       </c>
     </row>
   </sheetData>
